--- a/Insserção.xlsx
+++ b/Insserção.xlsx
@@ -96,11 +96,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="0.000000"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="0.000000"/>
+    <numFmt numFmtId="180" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -108,20 +108,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -140,6 +126,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -148,24 +156,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,15 +188,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,6 +208,14 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -224,25 +234,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,25 +264,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,19 +282,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,19 +330,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,7 +348,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,7 +360,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,55 +420,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,13 +444,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,8 +461,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,6 +502,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,15 +541,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -529,179 +555,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -709,7 +709,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4230,10 +4230,10 @@
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>2540</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4242,7 +4242,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="11709400" y="5997575"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:ext cx="4866640" cy="2724150"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4260,10 +4260,10 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>307975</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4272,7 +4272,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="11699875" y="8915400"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:ext cx="4876800" cy="2752725"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4545,7 +4545,7 @@
   <sheetPr/>
   <dimension ref="A2:AE68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
       <selection activeCell="L68" sqref="B68;D68;F68;H68;J68;L68"/>
     </sheetView>
   </sheetViews>
